--- a/liuqi.xlsx
+++ b/liuqi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" state="visible" r:id="rId2"/>
@@ -1534,7 +1534,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,7 +1581,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,11 +3003,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.59278350515464"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7268041237113"/>
-    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.45360824742268"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5927835051546"/>
+    <col collapsed="false" hidden="false" max="26" min="4" style="0" width="8.45360824742268"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="36.5515463917526"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,12 +4619,12 @@
   <dimension ref="1:16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.59278350515464"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.45360824742268"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +4971,7 @@
         <v>8</v>
       </c>
       <c r="I5" s="11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>60</v>
